--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_diff_constant_prefilled/diff_filled_a3_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_diff_constant_prefilled/diff_filled_a3_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5538461538461539</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="C3">
-        <v>0.5021367521367521</v>
+        <v>0.5064655172413793</v>
       </c>
       <c r="D3">
-        <v>0.5916955017301038</v>
+        <v>0.6021897810218978</v>
       </c>
       <c r="E3">
-        <v>0.5062761506276151</v>
+        <v>0.4926624737945492</v>
       </c>
       <c r="F3">
-        <v>0.6035714285714285</v>
+        <v>0.5821917808219178</v>
       </c>
       <c r="G3">
-        <v>0.4979674796747968</v>
+        <v>0.5071574642126789</v>
       </c>
       <c r="H3">
-        <v>0.506</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5757575757575758</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="C4">
-        <v>0.4903225806451613</v>
+        <v>0.5055432372505543</v>
       </c>
       <c r="D4">
-        <v>0.6666666666666666</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="E4">
-        <v>0.4615384615384616</v>
+        <v>0.456752655538695</v>
       </c>
       <c r="F4">
-        <v>0.592814371257485</v>
+        <v>0.6717948717948717</v>
       </c>
       <c r="G4">
-        <v>0.453757225433526</v>
+        <v>0.4753363228699551</v>
       </c>
       <c r="H4">
-        <v>0.508</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6124031007751938</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C5">
-        <v>0.4832635983263598</v>
+        <v>0.4968017057569296</v>
       </c>
       <c r="D5">
-        <v>0.6823529411764706</v>
+        <v>0.673202614379085</v>
       </c>
       <c r="E5">
-        <v>0.4539106145251396</v>
+        <v>0.461864406779661</v>
       </c>
       <c r="F5">
-        <v>0.6209677419354839</v>
+        <v>0.6442953020134228</v>
       </c>
       <c r="G5">
-        <v>0.4761904761904762</v>
+        <v>0.4649595687331536</v>
       </c>
       <c r="H5">
-        <v>0.512</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.674074074074074</v>
+        <v>0.6356589147286822</v>
       </c>
       <c r="C6">
-        <v>0.4653061224489796</v>
+        <v>0.481335952848723</v>
       </c>
       <c r="D6">
-        <v>0.6728395061728395</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="E6">
-        <v>0.4672131147540984</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="F6">
-        <v>0.6147540983606558</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="G6">
-        <v>0.4731585518102372</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="H6">
-        <v>0.526</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6598639455782312</v>
+        <v>0.6408450704225352</v>
       </c>
       <c r="C7">
-        <v>0.4491362763915547</v>
+        <v>0.4887640449438202</v>
       </c>
       <c r="D7">
-        <v>0.6226415094339622</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
-        <v>0.4757952973720608</v>
+        <v>0.4621513944223107</v>
       </c>
       <c r="F7">
-        <v>0.6016260162601627</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="G7">
-        <v>0.4788732394366197</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="H7">
-        <v>0.516</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6824324324324325</v>
+        <v>0.6459627329192547</v>
       </c>
       <c r="C8">
-        <v>0.4519056261343013</v>
+        <v>0.4766187050359712</v>
       </c>
       <c r="D8">
-        <v>0.632258064516129</v>
+        <v>0.5251798561151079</v>
       </c>
       <c r="E8">
-        <v>0.4897119341563786</v>
+        <v>0.4765729585006693</v>
       </c>
       <c r="F8">
-        <v>0.5419847328244275</v>
+        <v>0.609375</v>
       </c>
       <c r="G8">
-        <v>0.4734799482535575</v>
+        <v>0.4857881136950905</v>
       </c>
       <c r="H8">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6866666666666666</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="C9">
-        <v>0.453781512605042</v>
+        <v>0.4807017543859649</v>
       </c>
       <c r="D9">
-        <v>0.6258064516129033</v>
+        <v>0.5815602836879432</v>
       </c>
       <c r="E9">
-        <v>0.4979757085020243</v>
+        <v>0.4796747967479675</v>
       </c>
       <c r="F9">
-        <v>0.5785714285714286</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="G9">
-        <v>0.4734799482535575</v>
+        <v>0.4921052631578947</v>
       </c>
       <c r="H9">
-        <v>0.51</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.64375</v>
+        <v>0.6627906976744186</v>
       </c>
       <c r="C10">
-        <v>0.456828885400314</v>
+        <v>0.4710743801652892</v>
       </c>
       <c r="D10">
-        <v>0.5974025974025974</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="E10">
-        <v>0.4959349593495935</v>
+        <v>0.4743935309973046</v>
       </c>
       <c r="F10">
-        <v>0.5748031496062992</v>
+        <v>0.6074074074074074</v>
       </c>
       <c r="G10">
-        <v>0.4627450980392157</v>
+        <v>0.4869791666666667</v>
       </c>
       <c r="H10">
-        <v>0.516</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6602564102564102</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>0.466966966966967</v>
+        <v>0.4817749603803487</v>
       </c>
       <c r="D11">
-        <v>0.6056338028169014</v>
+        <v>0.5899280575539568</v>
       </c>
       <c r="E11">
-        <v>0.4993197278911565</v>
+        <v>0.4713896457765668</v>
       </c>
       <c r="F11">
-        <v>0.5952380952380952</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="G11">
-        <v>0.4532467532467532</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="H11">
-        <v>0.518</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6851851851851852</v>
+        <v>0.7345679012345679</v>
       </c>
       <c r="C12">
-        <v>0.4679943100995733</v>
+        <v>0.4718100890207715</v>
       </c>
       <c r="D12">
-        <v>0.6095890410958904</v>
+        <v>0.5472972972972973</v>
       </c>
       <c r="E12">
-        <v>0.5013550135501355</v>
+        <v>0.4737550471063257</v>
       </c>
       <c r="F12">
-        <v>0.6115107913669064</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="G12">
-        <v>0.4588235294117647</v>
+        <v>0.4784876140808344</v>
       </c>
       <c r="H12">
-        <v>0.484</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6428571428571429</v>
+        <v>0.7204968944099379</v>
       </c>
       <c r="C13">
-        <v>0.4648648648648649</v>
+        <v>0.47599451303155</v>
       </c>
       <c r="D13">
-        <v>0.610062893081761</v>
+        <v>0.5407407407407407</v>
       </c>
       <c r="E13">
-        <v>0.5026954177897575</v>
+        <v>0.476063829787234</v>
       </c>
       <c r="F13">
-        <v>0.6014492753623188</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="G13">
-        <v>0.453104359313078</v>
+        <v>0.4776315789473684</v>
       </c>
       <c r="H13">
-        <v>0.48</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.70625</v>
+        <v>0.6748466257668712</v>
       </c>
       <c r="C14">
-        <v>0.4662420382165605</v>
+        <v>0.4789272030651341</v>
       </c>
       <c r="D14">
-        <v>0.6153846153846154</v>
+        <v>0.5481481481481482</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F14">
-        <v>0.5343511450381679</v>
+        <v>0.562962962962963</v>
       </c>
       <c r="G14">
-        <v>0.4527813712807244</v>
+        <v>0.4789272030651341</v>
       </c>
       <c r="H14">
-        <v>0.47</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6956521739130435</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="C15">
-        <v>0.4588235294117647</v>
+        <v>0.4854721549636804</v>
       </c>
       <c r="D15">
-        <v>0.6644295302013423</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="E15">
-        <v>0.5091863517060368</v>
+        <v>0.4644243208279431</v>
       </c>
       <c r="F15">
-        <v>0.4959349593495935</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="G15">
-        <v>0.4589127686472819</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="H15">
-        <v>0.482</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6745562130177515</v>
+        <v>0.7484276729559748</v>
       </c>
       <c r="C16">
-        <v>0.4649610678531702</v>
+        <v>0.4786516853932584</v>
       </c>
       <c r="D16">
-        <v>0.6666666666666666</v>
+        <v>0.6106870229007634</v>
       </c>
       <c r="E16">
-        <v>0.5052219321148825</v>
+        <v>0.4561855670103093</v>
       </c>
       <c r="F16">
-        <v>0.4298245614035088</v>
+        <v>0.5655737704918032</v>
       </c>
       <c r="G16">
-        <v>0.4663341645885287</v>
+        <v>0.4861809045226131</v>
       </c>
       <c r="H16">
-        <v>0.474</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6867469879518072</v>
+        <v>0.7277777777777777</v>
       </c>
       <c r="C17">
-        <v>0.4675186368477103</v>
+        <v>0.4760348583877996</v>
       </c>
       <c r="D17">
-        <v>0.6240601503759399</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="E17">
-        <v>0.4980842911877394</v>
+        <v>0.4514877102199224</v>
       </c>
       <c r="F17">
-        <v>0.4782608695652174</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="G17">
-        <v>0.4577114427860697</v>
+        <v>0.479746835443038</v>
       </c>
       <c r="H17">
-        <v>0.488</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6628571428571428</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="C18">
-        <v>0.4636363636363636</v>
+        <v>0.4715359828141783</v>
       </c>
       <c r="D18">
-        <v>0.592</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E18">
-        <v>0.5019206145966709</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="F18">
-        <v>0.5950413223140496</v>
+        <v>0.609375</v>
       </c>
       <c r="G18">
-        <v>0.4559006211180124</v>
+        <v>0.4729381443298969</v>
       </c>
       <c r="H18">
-        <v>0.488</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,22 +868,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6888888888888889</v>
+        <v>0.7087912087912088</v>
       </c>
       <c r="C19">
-        <v>0.4652981427174975</v>
+        <v>0.4767206477732793</v>
       </c>
       <c r="D19">
-        <v>0.59375</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="E19">
-        <v>0.5025839793281653</v>
+        <v>0.4541884816753927</v>
       </c>
       <c r="F19">
-        <v>0.5964912280701754</v>
+        <v>0.5755395683453237</v>
       </c>
       <c r="G19">
-        <v>0.4498094027954257</v>
+        <v>0.472258064516129</v>
       </c>
       <c r="H19">
         <v>0.49</v>
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7126436781609196</v>
+        <v>0.6847826086956522</v>
       </c>
       <c r="C20">
-        <v>0.4616840113528855</v>
+        <v>0.4853228962818004</v>
       </c>
       <c r="D20">
-        <v>0.6666666666666666</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="E20">
-        <v>0.505249343832021</v>
+        <v>0.4521276595744681</v>
       </c>
       <c r="F20">
-        <v>0.5964912280701754</v>
+        <v>0.6016260162601627</v>
       </c>
       <c r="G20">
-        <v>0.4510800508259212</v>
+        <v>0.467866323907455</v>
       </c>
       <c r="H20">
-        <v>0.488</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7247191011235955</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="C21">
-        <v>0.4654088050314465</v>
+        <v>0.4920037629350894</v>
       </c>
       <c r="D21">
-        <v>0.6170212765957447</v>
+        <v>0.5524475524475524</v>
       </c>
       <c r="E21">
-        <v>0.4928664072632944</v>
+        <v>0.4467805519053876</v>
       </c>
       <c r="F21">
-        <v>0.5409836065573771</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="G21">
-        <v>0.4536340852130326</v>
+        <v>0.4613434727503168</v>
       </c>
       <c r="H21">
-        <v>0.48</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7032967032967034</v>
+        <v>0.6914285714285714</v>
       </c>
       <c r="C22">
-        <v>0.4656820156385751</v>
+        <v>0.4865350089766607</v>
       </c>
       <c r="D22">
-        <v>0.609375</v>
+        <v>0.583941605839416</v>
       </c>
       <c r="E22">
-        <v>0.4967490247074122</v>
+        <v>0.4558441558441558</v>
       </c>
       <c r="F22">
-        <v>0.6016949152542372</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G22">
-        <v>0.4622166246851385</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="H22">
-        <v>0.478</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6963350785340314</v>
+        <v>0.7076023391812866</v>
       </c>
       <c r="C23">
-        <v>0.472620050547599</v>
+        <v>0.4829991281604185</v>
       </c>
       <c r="D23">
-        <v>0.5615384615384615</v>
+        <v>0.6220472440944882</v>
       </c>
       <c r="E23">
-        <v>0.4895833333333333</v>
+        <v>0.456953642384106</v>
       </c>
       <c r="F23">
-        <v>0.6220472440944882</v>
+        <v>0.6120689655172413</v>
       </c>
       <c r="G23">
-        <v>0.4560509554140127</v>
+        <v>0.4571062740076824</v>
       </c>
       <c r="H23">
-        <v>0.478</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7096774193548387</v>
+        <v>0.7071823204419889</v>
       </c>
       <c r="C24">
-        <v>0.4743801652892562</v>
+        <v>0.485256950294861</v>
       </c>
       <c r="D24">
-        <v>0.5615384615384615</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="E24">
-        <v>0.4907161803713528</v>
+        <v>0.4626666666666667</v>
       </c>
       <c r="F24">
-        <v>0.6439393939393939</v>
+        <v>0.5214285714285715</v>
       </c>
       <c r="G24">
-        <v>0.4622395833333333</v>
+        <v>0.4650259067357513</v>
       </c>
       <c r="H24">
-        <v>0.472</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7206703910614525</v>
+        <v>0.6994535519125683</v>
       </c>
       <c r="C25">
-        <v>0.4755520504731861</v>
+        <v>0.4777594728171334</v>
       </c>
       <c r="D25">
-        <v>0.5652173913043478</v>
+        <v>0.5935483870967742</v>
       </c>
       <c r="E25">
-        <v>0.4830729166666667</v>
+        <v>0.4576043068640646</v>
       </c>
       <c r="F25">
-        <v>0.6076923076923076</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="G25">
-        <v>0.4671814671814672</v>
+        <v>0.4638633377135348</v>
       </c>
       <c r="H25">
-        <v>0.464</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7670454545454546</v>
+        <v>0.6704545454545454</v>
       </c>
       <c r="C26">
-        <v>0.4763358778625954</v>
+        <v>0.476038338658147</v>
       </c>
       <c r="D26">
-        <v>0.5447154471544715</v>
+        <v>0.6143790849673203</v>
       </c>
       <c r="E26">
-        <v>0.4725848563968668</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="F26">
-        <v>0.6090909090909091</v>
+        <v>0.5891472868217055</v>
       </c>
       <c r="G26">
-        <v>0.4738186462324394</v>
+        <v>0.4572538860103627</v>
       </c>
       <c r="H26">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7457627118644068</v>
+        <v>0.6686046511627907</v>
       </c>
       <c r="C27">
-        <v>0.4724871606749816</v>
+        <v>0.4807395993836672</v>
       </c>
       <c r="D27">
-        <v>0.5441176470588235</v>
+        <v>0.6137931034482759</v>
       </c>
       <c r="E27">
-        <v>0.4684684684684685</v>
+        <v>0.464524765729585</v>
       </c>
       <c r="F27">
-        <v>0.6491228070175439</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G27">
-        <v>0.4761306532663316</v>
+        <v>0.4564102564102564</v>
       </c>
       <c r="H27">
-        <v>0.474</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7619047619047619</v>
+        <v>0.6971428571428572</v>
       </c>
       <c r="C28">
-        <v>0.474964234620887</v>
+        <v>0.4880774962742176</v>
       </c>
       <c r="D28">
-        <v>0.5373134328358209</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="E28">
-        <v>0.4660574412532637</v>
+        <v>0.4723684210526316</v>
       </c>
       <c r="F28">
-        <v>0.6551724137931034</v>
+        <v>0.5887096774193549</v>
       </c>
       <c r="G28">
-        <v>0.4823232323232323</v>
+        <v>0.4569961489088575</v>
       </c>
       <c r="H28">
-        <v>0.464</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7349397590361446</v>
+        <v>0.6802325581395349</v>
       </c>
       <c r="C29">
-        <v>0.4740843123704215</v>
+        <v>0.4810495626822158</v>
       </c>
       <c r="D29">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E29">
-        <v>0.4671052631578947</v>
+        <v>0.4766233766233766</v>
       </c>
       <c r="F29">
-        <v>0.5891472868217055</v>
+        <v>0.6062992125984252</v>
       </c>
       <c r="G29">
-        <v>0.4910485933503836</v>
+        <v>0.4618320610687023</v>
       </c>
       <c r="H29">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7261904761904762</v>
+        <v>0.6787564766839378</v>
       </c>
       <c r="C30">
-        <v>0.4796802131912059</v>
+        <v>0.485273492286115</v>
       </c>
       <c r="D30">
-        <v>0.5616438356164384</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="E30">
-        <v>0.4625322997416021</v>
+        <v>0.4744245524296675</v>
       </c>
       <c r="F30">
-        <v>0.6259541984732825</v>
+        <v>0.5615384615384615</v>
       </c>
       <c r="G30">
-        <v>0.5012755102040817</v>
+        <v>0.4537389100126742</v>
       </c>
       <c r="H30">
-        <v>0.458</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7</v>
+        <v>0.6852791878172588</v>
       </c>
       <c r="C31">
-        <v>0.4769630110317976</v>
+        <v>0.4763536668951336</v>
       </c>
       <c r="D31">
-        <v>0.5597014925373134</v>
+        <v>0.5891472868217055</v>
       </c>
       <c r="E31">
-        <v>0.4641460234680574</v>
+        <v>0.467680608365019</v>
       </c>
       <c r="F31">
-        <v>0.6341463414634146</v>
+        <v>0.6548672566371682</v>
       </c>
       <c r="G31">
-        <v>0.4911616161616162</v>
+        <v>0.44875</v>
       </c>
       <c r="H31">
-        <v>0.456</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7100591715976331</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="C32">
-        <v>0.4792713567839196</v>
+        <v>0.4760297096556381</v>
       </c>
       <c r="D32">
-        <v>0.6062992125984252</v>
+        <v>0.6864406779661016</v>
       </c>
       <c r="E32">
-        <v>0.4633204633204633</v>
+        <v>0.458656330749354</v>
       </c>
       <c r="F32">
-        <v>0.6238532110091743</v>
+        <v>0.5943396226415094</v>
       </c>
       <c r="G32">
-        <v>0.4886649874055415</v>
+        <v>0.4461152882205514</v>
       </c>
       <c r="H32">
-        <v>0.45</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6939890710382514</v>
+        <v>0.6775956284153005</v>
       </c>
       <c r="C33">
-        <v>0.4758704948075748</v>
+        <v>0.4756898817345598</v>
       </c>
       <c r="D33">
-        <v>0.5826771653543307</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E33">
-        <v>0.4613434727503168</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="F33">
-        <v>0.5871559633027523</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="G33">
-        <v>0.4901719901719901</v>
+        <v>0.4581218274111675</v>
       </c>
       <c r="H33">
-        <v>0.448</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6649214659685864</v>
+        <v>0.675531914893617</v>
       </c>
       <c r="C34">
-        <v>0.4724220623501199</v>
+        <v>0.4748711340206185</v>
       </c>
       <c r="D34">
-        <v>0.6239316239316239</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="E34">
-        <v>0.4708121827411167</v>
+        <v>0.4606141522029373</v>
       </c>
       <c r="F34">
-        <v>0.6176470588235294</v>
+        <v>0.6356589147286822</v>
       </c>
       <c r="G34">
-        <v>0.4963054187192118</v>
+        <v>0.4680573663624511</v>
       </c>
       <c r="H34">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6850828729281768</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C35">
-        <v>0.4765020820939917</v>
+        <v>0.4734848484848485</v>
       </c>
       <c r="D35">
-        <v>0.6637931034482759</v>
+        <v>0.6606060606060606</v>
       </c>
       <c r="E35">
-        <v>0.4747081712062257</v>
+        <v>0.4588394062078273</v>
       </c>
       <c r="F35">
-        <v>0.5833333333333334</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="G35">
-        <v>0.4829760403530896</v>
+        <v>0.4606299212598425</v>
       </c>
       <c r="H35">
-        <v>0.472</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6858638743455497</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="C36">
-        <v>0.4747533372025537</v>
+        <v>0.4688644688644689</v>
       </c>
       <c r="D36">
-        <v>0.5874125874125874</v>
+        <v>0.7114093959731543</v>
       </c>
       <c r="E36">
-        <v>0.4638633377135348</v>
+        <v>0.46524064171123</v>
       </c>
       <c r="F36">
-        <v>0.5564516129032258</v>
+        <v>0.5683453237410072</v>
       </c>
       <c r="G36">
-        <v>0.4807692307692308</v>
+        <v>0.4660691421254802</v>
       </c>
       <c r="H36">
-        <v>0.486</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7292817679558011</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C37">
-        <v>0.4718269778030734</v>
+        <v>0.4657615112160567</v>
       </c>
       <c r="D37">
-        <v>0.5704697986577181</v>
+        <v>0.7355371900826446</v>
       </c>
       <c r="E37">
-        <v>0.4663143989431968</v>
+        <v>0.4617380025940337</v>
       </c>
       <c r="F37">
-        <v>0.5785123966942148</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="G37">
-        <v>0.4752223634053367</v>
+        <v>0.4663278271918678</v>
       </c>
       <c r="H37">
-        <v>0.494</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7301587301587301</v>
+        <v>0.7183908045977011</v>
       </c>
       <c r="C38">
-        <v>0.4723145071982282</v>
+        <v>0.469235192639448</v>
       </c>
       <c r="D38">
-        <v>0.6119402985074627</v>
+        <v>0.6859504132231405</v>
       </c>
       <c r="E38">
-        <v>0.4649006622516556</v>
+        <v>0.469309462915601</v>
       </c>
       <c r="F38">
-        <v>0.631578947368421</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="G38">
-        <v>0.4766118836915297</v>
+        <v>0.4727722772277227</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7529411764705882</v>
+        <v>0.6852791878172588</v>
       </c>
       <c r="C39">
-        <v>0.4729950900163666</v>
+        <v>0.4677601809954751</v>
       </c>
       <c r="D39">
-        <v>0.5833333333333334</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="E39">
-        <v>0.4643799472295514</v>
+        <v>0.4734799482535575</v>
       </c>
       <c r="F39">
-        <v>0.6302521008403361</v>
+        <v>0.5855855855855856</v>
       </c>
       <c r="G39">
-        <v>0.4790343074968234</v>
+        <v>0.4621212121212121</v>
       </c>
       <c r="H39">
-        <v>0.494</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7283950617283951</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="C40">
-        <v>0.4764923402007396</v>
+        <v>0.469893078221722</v>
       </c>
       <c r="D40">
-        <v>0.5602836879432624</v>
+        <v>0.5928571428571429</v>
       </c>
       <c r="E40">
-        <v>0.4725130890052356</v>
+        <v>0.4768211920529801</v>
       </c>
       <c r="F40">
-        <v>0.5703125</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="G40">
-        <v>0.4802547770700637</v>
+        <v>0.4635083226632523</v>
       </c>
       <c r="H40">
-        <v>0.5</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7289156626506024</v>
+        <v>0.7004830917874396</v>
       </c>
       <c r="C41">
-        <v>0.4804928131416838</v>
+        <v>0.4679802955665024</v>
       </c>
       <c r="D41">
-        <v>0.5107913669064749</v>
+        <v>0.6040268456375839</v>
       </c>
       <c r="E41">
-        <v>0.47074122236671</v>
+        <v>0.468503937007874</v>
       </c>
       <c r="F41">
-        <v>0.528</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="G41">
-        <v>0.4829329962073325</v>
+        <v>0.461734693877551</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7575757575757576</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C42">
-        <v>0.4805260495700556</v>
+        <v>0.465378421900161</v>
       </c>
       <c r="D42">
-        <v>0.5267175572519084</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="E42">
-        <v>0.4754521963824289</v>
+        <v>0.4678899082568808</v>
       </c>
       <c r="F42">
-        <v>0.5546218487394958</v>
+        <v>0.6535433070866141</v>
       </c>
       <c r="G42">
-        <v>0.4761306532663316</v>
+        <v>0.4585987261146497</v>
       </c>
       <c r="H42">
-        <v>0.506</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7284768211920529</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="C43">
-        <v>0.4774417451660882</v>
+        <v>0.4635036496350365</v>
       </c>
       <c r="D43">
-        <v>0.5078125</v>
+        <v>0.5886524822695035</v>
       </c>
       <c r="E43">
-        <v>0.4741602067183462</v>
+        <v>0.4692005242463958</v>
       </c>
       <c r="F43">
-        <v>0.57</v>
+        <v>0.6016949152542372</v>
       </c>
       <c r="G43">
-        <v>0.4818067754077792</v>
+        <v>0.4623243933588761</v>
       </c>
       <c r="H43">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7108433734939759</v>
+        <v>0.7295918367346939</v>
       </c>
       <c r="C44">
-        <v>0.4784085395439107</v>
+        <v>0.4675925925925926</v>
       </c>
       <c r="D44">
-        <v>0.5230769230769231</v>
+        <v>0.6115107913669064</v>
       </c>
       <c r="E44">
-        <v>0.4784876140808344</v>
+        <v>0.4691689008042895</v>
       </c>
       <c r="F44">
-        <v>0.5686274509803921</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="G44">
-        <v>0.47125</v>
+        <v>0.4658944658944659</v>
       </c>
       <c r="H44">
-        <v>0.51</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6890243902439024</v>
+        <v>0.7362637362637363</v>
       </c>
       <c r="C45">
-        <v>0.4789272030651341</v>
+        <v>0.4682139253279516</v>
       </c>
       <c r="D45">
-        <v>0.5957446808510638</v>
+        <v>0.5608108108108109</v>
       </c>
       <c r="E45">
-        <v>0.4796854521625164</v>
+        <v>0.4613333333333333</v>
       </c>
       <c r="F45">
-        <v>0.5338983050847458</v>
+        <v>0.6412213740458015</v>
       </c>
       <c r="G45">
-        <v>0.4666666666666667</v>
+        <v>0.4683870967741935</v>
       </c>
       <c r="H45">
-        <v>0.51</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7005988023952096</v>
+        <v>0.7159090909090909</v>
       </c>
       <c r="C46">
-        <v>0.4823363165332077</v>
+        <v>0.4692765113974232</v>
       </c>
       <c r="D46">
-        <v>0.6148148148148148</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E46">
-        <v>0.4775132275132275</v>
+        <v>0.4625668449197861</v>
       </c>
       <c r="F46">
-        <v>0.5833333333333334</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="G46">
-        <v>0.4643765903307888</v>
+        <v>0.4658064516129032</v>
       </c>
       <c r="H46">
-        <v>0.5</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7352941176470589</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="C47">
-        <v>0.4801660516605166</v>
+        <v>0.4725861232411451</v>
       </c>
       <c r="D47">
-        <v>0.5413533834586466</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="E47">
-        <v>0.4642392717815345</v>
+        <v>0.4596026490066225</v>
       </c>
       <c r="F47">
-        <v>0.5403225806451613</v>
+        <v>0.5985401459854015</v>
       </c>
       <c r="G47">
-        <v>0.4609571788413098</v>
+        <v>0.4617380025940337</v>
       </c>
       <c r="H47">
-        <v>0.492</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7294117647058823</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="C48">
-        <v>0.4767494356659142</v>
+        <v>0.4736342042755344</v>
       </c>
       <c r="D48">
-        <v>0.5725806451612904</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="E48">
-        <v>0.4717948717948718</v>
+        <v>0.4597402597402597</v>
       </c>
       <c r="F48">
-        <v>0.5701754385964912</v>
+        <v>0.6204379562043796</v>
       </c>
       <c r="G48">
-        <v>0.460377358490566</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H48">
-        <v>0.502</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6612021857923497</v>
+        <v>0.72</v>
       </c>
       <c r="C49">
-        <v>0.4770601336302895</v>
+        <v>0.473342605470561</v>
       </c>
       <c r="D49">
-        <v>0.5891472868217055</v>
+        <v>0.608</v>
       </c>
       <c r="E49">
-        <v>0.4630350194552529</v>
+        <v>0.4657894736842105</v>
       </c>
       <c r="F49">
-        <v>0.594059405940594</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="G49">
-        <v>0.4644670050761421</v>
+        <v>0.4646983311938382</v>
       </c>
       <c r="H49">
-        <v>0.49</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6820809248554913</v>
+        <v>0.7283236994219653</v>
       </c>
       <c r="C50">
-        <v>0.4817261118450022</v>
+        <v>0.4771271729185728</v>
       </c>
       <c r="D50">
-        <v>0.5684931506849316</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="E50">
-        <v>0.4618421052631579</v>
+        <v>0.4524119947848761</v>
       </c>
       <c r="F50">
-        <v>0.5793650793650794</v>
+        <v>0.6106870229007634</v>
       </c>
       <c r="G50">
-        <v>0.4654088050314465</v>
+        <v>0.4580645161290323</v>
       </c>
       <c r="H50">
-        <v>0.49</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.727810650887574</v>
+        <v>0.68</v>
       </c>
       <c r="C51">
-        <v>0.4832330180567498</v>
+        <v>0.4784172661870504</v>
       </c>
       <c r="D51">
-        <v>0.5928571428571429</v>
+        <v>0.5785714285714286</v>
       </c>
       <c r="E51">
-        <v>0.4656992084432718</v>
+        <v>0.442838370565046</v>
       </c>
       <c r="F51">
-        <v>0.5867768595041323</v>
+        <v>0.6287878787878788</v>
       </c>
       <c r="G51">
-        <v>0.471190781049936</v>
+        <v>0.4607329842931937</v>
       </c>
       <c r="H51">
-        <v>0.484</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7102272727272727</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C52">
-        <v>0.484006734006734</v>
+        <v>0.4829570606463037</v>
       </c>
       <c r="D52">
-        <v>0.6</v>
+        <v>0.5563380281690141</v>
       </c>
       <c r="E52">
-        <v>0.4624352331606217</v>
+        <v>0.4392523364485981</v>
       </c>
       <c r="F52">
-        <v>0.5701754385964912</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="G52">
-        <v>0.4692597239648683</v>
+        <v>0.4646596858638743</v>
       </c>
       <c r="H52">
-        <v>0.478</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7225433526011561</v>
+        <v>0.7041420118343196</v>
       </c>
       <c r="C53">
-        <v>0.4870509607351712</v>
+        <v>0.4827284652383034</v>
       </c>
       <c r="D53">
-        <v>0.5634920634920635</v>
+        <v>0.5704225352112676</v>
       </c>
       <c r="E53">
-        <v>0.4538461538461538</v>
+        <v>0.4422043010752688</v>
       </c>
       <c r="F53">
-        <v>0.5700934579439252</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="G53">
-        <v>0.4732254047322541</v>
+        <v>0.4647137150466045</v>
       </c>
       <c r="H53">
-        <v>0.474</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.708994708994709</v>
+        <v>0.7341040462427746</v>
       </c>
       <c r="C54">
-        <v>0.4847736625514403</v>
+        <v>0.4775545104745618</v>
       </c>
       <c r="D54">
-        <v>0.5107913669064749</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="E54">
-        <v>0.4545454545454545</v>
+        <v>0.4410596026490066</v>
       </c>
       <c r="F54">
-        <v>0.5925925925925926</v>
+        <v>0.6118421052631579</v>
       </c>
       <c r="G54">
-        <v>0.4755944931163955</v>
+        <v>0.4711286089238845</v>
       </c>
       <c r="H54">
-        <v>0.466</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6944444444444444</v>
+        <v>0.7109826589595376</v>
       </c>
       <c r="C55">
-        <v>0.4838445807770961</v>
+        <v>0.4762704745905082</v>
       </c>
       <c r="D55">
-        <v>0.5877862595419847</v>
+        <v>0.6859504132231405</v>
       </c>
       <c r="E55">
-        <v>0.4555112881806109</v>
+        <v>0.4453024453024453</v>
       </c>
       <c r="F55">
-        <v>0.5508474576271186</v>
+        <v>0.5864661654135338</v>
       </c>
       <c r="G55">
-        <v>0.4714828897338403</v>
+        <v>0.4676165803108808</v>
       </c>
       <c r="H55">
-        <v>0.476</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,22 +1830,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7094972067039106</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="C56">
-        <v>0.4871279163314561</v>
+        <v>0.4766432410086813</v>
       </c>
       <c r="D56">
-        <v>0.6043165467625899</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E56">
-        <v>0.4447368421052632</v>
+        <v>0.4451530612244898</v>
       </c>
       <c r="F56">
-        <v>0.592</v>
+        <v>0.5847457627118644</v>
       </c>
       <c r="G56">
-        <v>0.4782051282051282</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="H56">
         <v>0.478</v>
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7289156626506024</v>
+        <v>0.6647727272727273</v>
       </c>
       <c r="C57">
-        <v>0.4881329113924051</v>
+        <v>0.4769789983844911</v>
       </c>
       <c r="D57">
-        <v>0.5472972972972973</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="E57">
-        <v>0.4396325459317585</v>
+        <v>0.4515723270440252</v>
       </c>
       <c r="F57">
-        <v>0.5934959349593496</v>
+        <v>0.5655737704918032</v>
       </c>
       <c r="G57">
-        <v>0.4770992366412214</v>
+        <v>0.4725685785536159</v>
       </c>
       <c r="H57">
-        <v>0.472</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7386363636363636</v>
+        <v>0.6802325581395349</v>
       </c>
       <c r="C58">
-        <v>0.4863919129082426</v>
+        <v>0.477516912057302</v>
       </c>
       <c r="D58">
-        <v>0.5615384615384615</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E58">
-        <v>0.4468085106382979</v>
+        <v>0.4582278481012658</v>
       </c>
       <c r="F58">
-        <v>0.6153846153846154</v>
+        <v>0.6435643564356436</v>
       </c>
       <c r="G58">
-        <v>0.4732142857142857</v>
+        <v>0.469059405940594</v>
       </c>
       <c r="H58">
-        <v>0.468</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7317073170731707</v>
+        <v>0.6758241758241759</v>
       </c>
       <c r="C59">
-        <v>0.4834996162701458</v>
+        <v>0.4778170396544955</v>
       </c>
       <c r="D59">
-        <v>0.5734265734265734</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="E59">
-        <v>0.4378238341968912</v>
+        <v>0.4646074646074646</v>
       </c>
       <c r="F59">
-        <v>0.6171875</v>
+        <v>0.59375</v>
       </c>
       <c r="G59">
-        <v>0.4723618090452261</v>
+        <v>0.4622057001239158</v>
       </c>
       <c r="H59">
-        <v>0.472</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6941176470588235</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="C60">
-        <v>0.4848828420256991</v>
+        <v>0.4799072642967542</v>
       </c>
       <c r="D60">
-        <v>0.631578947368421</v>
+        <v>0.5899280575539568</v>
       </c>
       <c r="E60">
-        <v>0.4393139841688654</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="F60">
-        <v>0.6071428571428571</v>
+        <v>0.5702479338842975</v>
       </c>
       <c r="G60">
-        <v>0.4610472541507024</v>
+        <v>0.4671623296158612</v>
       </c>
       <c r="H60">
-        <v>0.474</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6792452830188679</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C61">
-        <v>0.4869402985074627</v>
+        <v>0.4795609386828161</v>
       </c>
       <c r="D61">
-        <v>0.6083916083916084</v>
+        <v>0.5905511811023622</v>
       </c>
       <c r="E61">
-        <v>0.4378306878306878</v>
+        <v>0.4766233766233766</v>
       </c>
       <c r="F61">
-        <v>0.5819672131147541</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G61">
-        <v>0.4648786717752235</v>
+        <v>0.4672544080604534</v>
       </c>
       <c r="H61">
-        <v>0.466</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7278481012658228</v>
+        <v>0.6770186335403726</v>
       </c>
       <c r="C62">
-        <v>0.4882869692532943</v>
+        <v>0.4831586826347306</v>
       </c>
       <c r="D62">
-        <v>0.5801526717557252</v>
+        <v>0.6183206106870229</v>
       </c>
       <c r="E62">
-        <v>0.4472295514511873</v>
+        <v>0.4701298701298701</v>
       </c>
       <c r="F62">
-        <v>0.5564516129032258</v>
+        <v>0.5169491525423728</v>
       </c>
       <c r="G62">
-        <v>0.4693877551020408</v>
+        <v>0.4578616352201258</v>
       </c>
       <c r="H62">
-        <v>0.454</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7333333333333333</v>
+        <v>0.70625</v>
       </c>
       <c r="C63">
-        <v>0.4839408155900397</v>
+        <v>0.486019131714496</v>
       </c>
       <c r="D63">
-        <v>0.6198347107438017</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="E63">
-        <v>0.4565499351491569</v>
+        <v>0.4652686762778506</v>
       </c>
       <c r="F63">
-        <v>0.5163934426229508</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="G63">
-        <v>0.4751592356687898</v>
+        <v>0.4543147208121827</v>
       </c>
       <c r="H63">
-        <v>0.442</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6972972972972973</v>
+        <v>0.7160493827160493</v>
       </c>
       <c r="C64">
-        <v>0.4839971550497866</v>
+        <v>0.4838358154740283</v>
       </c>
       <c r="D64">
-        <v>0.6076923076923076</v>
+        <v>0.5620437956204379</v>
       </c>
       <c r="E64">
-        <v>0.4544303797468354</v>
+        <v>0.470976253298153</v>
       </c>
       <c r="F64">
-        <v>0.5238095238095238</v>
+        <v>0.6260162601626016</v>
       </c>
       <c r="G64">
-        <v>0.4805031446540881</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="H64">
-        <v>0.446</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7134146341463414</v>
+        <v>0.7114093959731543</v>
       </c>
       <c r="C65">
-        <v>0.4885037141846481</v>
+        <v>0.4852835606604451</v>
       </c>
       <c r="D65">
-        <v>0.5826771653543307</v>
+        <v>0.5939849624060151</v>
       </c>
       <c r="E65">
-        <v>0.4591439688715953</v>
+        <v>0.4723684210526316</v>
       </c>
       <c r="F65">
-        <v>0.5727272727272728</v>
+        <v>0.5615384615384615</v>
       </c>
       <c r="G65">
-        <v>0.469910371318822</v>
+        <v>0.4515306122448979</v>
       </c>
       <c r="H65">
-        <v>0.472</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6785714285714286</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C66">
-        <v>0.4873833390943657</v>
+        <v>0.4837340876944837</v>
       </c>
       <c r="D66">
-        <v>0.4866666666666667</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="E66">
-        <v>0.4618369987063389</v>
+        <v>0.4718954248366013</v>
       </c>
       <c r="F66">
-        <v>0.5725806451612904</v>
+        <v>0.576</v>
       </c>
       <c r="G66">
-        <v>0.4659949622166247</v>
+        <v>0.4627249357326478</v>
       </c>
       <c r="H66">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6703910614525139</v>
+        <v>0.6845238095238095</v>
       </c>
       <c r="C67">
-        <v>0.4907216494845361</v>
+        <v>0.4833974134917861</v>
       </c>
       <c r="D67">
-        <v>0.5777777777777777</v>
+        <v>0.6370370370370371</v>
       </c>
       <c r="E67">
-        <v>0.4671140939597315</v>
+        <v>0.4719687092568449</v>
       </c>
       <c r="F67">
-        <v>0.5798319327731093</v>
+        <v>0.6074074074074074</v>
       </c>
       <c r="G67">
-        <v>0.4774774774774775</v>
+        <v>0.4572158365261814</v>
       </c>
       <c r="H67">
-        <v>0.452</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.679144385026738</v>
+        <v>0.6982248520710059</v>
       </c>
       <c r="C68">
-        <v>0.490329148286393</v>
+        <v>0.4846180435534048</v>
       </c>
       <c r="D68">
-        <v>0.5359477124183006</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E68">
-        <v>0.4601307189542483</v>
+        <v>0.4577373211963589</v>
       </c>
       <c r="F68">
-        <v>0.5467625899280576</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="G68">
-        <v>0.4828025477707006</v>
+        <v>0.4503225806451613</v>
       </c>
       <c r="H68">
-        <v>0.454</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6914285714285714</v>
+        <v>0.7204968944099379</v>
       </c>
       <c r="C69">
-        <v>0.4882392473118279</v>
+        <v>0.4836623553437713</v>
       </c>
       <c r="D69">
-        <v>0.6106870229007634</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="E69">
-        <v>0.4631578947368421</v>
+        <v>0.4562982005141388</v>
       </c>
       <c r="F69">
-        <v>0.5619834710743802</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="G69">
-        <v>0.4794871794871795</v>
+        <v>0.4547738693467337</v>
       </c>
       <c r="H69">
-        <v>0.46</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7317073170731707</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="C70">
-        <v>0.4874587458745875</v>
+        <v>0.4833948339483395</v>
       </c>
       <c r="D70">
-        <v>0.5862068965517241</v>
+        <v>0.5819672131147541</v>
       </c>
       <c r="E70">
-        <v>0.455483870967742</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="F70">
-        <v>0.5892857142857143</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="G70">
-        <v>0.4672544080604534</v>
+        <v>0.4650571791613723</v>
       </c>
       <c r="H70">
-        <v>0.464</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7251461988304093</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C71">
-        <v>0.486328125</v>
+        <v>0.4860834990059642</v>
       </c>
       <c r="D71">
-        <v>0.6014492753623188</v>
+        <v>0.6062992125984252</v>
       </c>
       <c r="E71">
-        <v>0.4618421052631579</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="F71">
-        <v>0.5961538461538461</v>
+        <v>0.5826086956521739</v>
       </c>
       <c r="G71">
-        <v>0.464508094645081</v>
+        <v>0.4710327455919395</v>
       </c>
       <c r="H71">
-        <v>0.462</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7443181818181818</v>
+        <v>0.7005988023952096</v>
       </c>
       <c r="C72">
-        <v>0.4865739242963442</v>
+        <v>0.4855832241153342</v>
       </c>
       <c r="D72">
-        <v>0.6058394160583942</v>
+        <v>0.6422764227642277</v>
       </c>
       <c r="E72">
-        <v>0.4660452729693741</v>
+        <v>0.4612403100775194</v>
       </c>
       <c r="F72">
-        <v>0.5932203389830508</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G72">
-        <v>0.4715549936788875</v>
+        <v>0.4748110831234257</v>
       </c>
       <c r="H72">
-        <v>0.458</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7485029940119761</v>
+        <v>0.7018633540372671</v>
       </c>
       <c r="C73">
-        <v>0.4868841970569418</v>
+        <v>0.4851132686084142</v>
       </c>
       <c r="D73">
-        <v>0.6071428571428571</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="E73">
-        <v>0.4670184696569921</v>
+        <v>0.4499349804941483</v>
       </c>
       <c r="F73">
-        <v>0.5581395348837209</v>
+        <v>0.5603448275862069</v>
       </c>
       <c r="G73">
-        <v>0.4714104193138501</v>
+        <v>0.4704402515723271</v>
       </c>
       <c r="H73">
-        <v>0.458</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7345679012345679</v>
+        <v>0.7006369426751592</v>
       </c>
       <c r="C74">
-        <v>0.4854003139717425</v>
+        <v>0.4855769230769231</v>
       </c>
       <c r="D74">
-        <v>0.5925925925925926</v>
+        <v>0.5851851851851851</v>
       </c>
       <c r="E74">
-        <v>0.4665809768637532</v>
+        <v>0.4564369310793238</v>
       </c>
       <c r="F74">
-        <v>0.5508474576271186</v>
+        <v>0.6324786324786325</v>
       </c>
       <c r="G74">
-        <v>0.4718397997496871</v>
+        <v>0.4746835443037974</v>
       </c>
       <c r="H74">
-        <v>0.464</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6839080459770115</v>
+        <v>0.6770186335403726</v>
       </c>
       <c r="C75">
-        <v>0.4885306881587105</v>
+        <v>0.4882985452245414</v>
       </c>
       <c r="D75">
-        <v>0.5901639344262295</v>
+        <v>0.6015037593984962</v>
       </c>
       <c r="E75">
-        <v>0.4677835051546392</v>
+        <v>0.453104359313078</v>
       </c>
       <c r="F75">
-        <v>0.5486725663716814</v>
+        <v>0.64</v>
       </c>
       <c r="G75">
-        <v>0.47375</v>
+        <v>0.4726114649681529</v>
       </c>
       <c r="H75">
-        <v>0.472</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C76">
-        <v>0.4875192604006163</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="D76">
-        <v>0.5298507462686567</v>
+        <v>0.556390977443609</v>
       </c>
       <c r="E76">
-        <v>0.4655396618985695</v>
+        <v>0.4480946123521682</v>
       </c>
       <c r="F76">
-        <v>0.5476190476190477</v>
+        <v>0.6417910447761194</v>
       </c>
       <c r="G76">
-        <v>0.4738186462324394</v>
+        <v>0.4740932642487047</v>
       </c>
       <c r="H76">
-        <v>0.466</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7175141242937854</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C77">
-        <v>0.4881314668289714</v>
+        <v>0.4891236793039155</v>
       </c>
       <c r="D77">
-        <v>0.6014492753623188</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="E77">
-        <v>0.4637305699481865</v>
+        <v>0.4503916449086162</v>
       </c>
       <c r="F77">
-        <v>0.6101694915254238</v>
+        <v>0.6544117647058824</v>
       </c>
       <c r="G77">
-        <v>0.4637865311308768</v>
+        <v>0.4735483870967742</v>
       </c>
       <c r="H77">
-        <v>0.472</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7485714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="C78">
-        <v>0.4860234445446348</v>
+        <v>0.4875957120980092</v>
       </c>
       <c r="D78">
-        <v>0.6363636363636364</v>
+        <v>0.5864661654135338</v>
       </c>
       <c r="E78">
-        <v>0.4580645161290323</v>
+        <v>0.4466145833333333</v>
       </c>
       <c r="F78">
-        <v>0.6538461538461539</v>
+        <v>0.6422018348623854</v>
       </c>
       <c r="G78">
-        <v>0.4582814445828144</v>
+        <v>0.4706632653061225</v>
       </c>
       <c r="H78">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7439024390243902</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="C79">
-        <v>0.4852984852984853</v>
+        <v>0.48650288140734</v>
       </c>
       <c r="D79">
-        <v>0.6260162601626016</v>
+        <v>0.6592592592592592</v>
       </c>
       <c r="E79">
-        <v>0.45822454308094</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="F79">
-        <v>0.6486486486486487</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="G79">
-        <v>0.4636251541307028</v>
+        <v>0.4742138364779874</v>
       </c>
       <c r="H79">
-        <v>0.454</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7125748502994012</v>
+        <v>0.7048192771084337</v>
       </c>
       <c r="C80">
-        <v>0.4859320046893318</v>
+        <v>0.4863075534155883</v>
       </c>
       <c r="D80">
-        <v>0.6299212598425197</v>
+        <v>0.6482758620689655</v>
       </c>
       <c r="E80">
-        <v>0.4640102827763496</v>
+        <v>0.4519104084321476</v>
       </c>
       <c r="F80">
-        <v>0.5945945945945946</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="G80">
-        <v>0.4675</v>
+        <v>0.4748743718592965</v>
       </c>
       <c r="H80">
-        <v>0.448</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7048192771084337</v>
+        <v>0.6927374301675978</v>
       </c>
       <c r="C81">
-        <v>0.4871645274212369</v>
+        <v>0.4876524843796489</v>
       </c>
       <c r="D81">
-        <v>0.625</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="E81">
-        <v>0.4677206851119894</v>
+        <v>0.4546649145860709</v>
       </c>
       <c r="F81">
-        <v>0.5630252100840336</v>
+        <v>0.5</v>
       </c>
       <c r="G81">
-        <v>0.4642857142857143</v>
+        <v>0.47625</v>
       </c>
       <c r="H81">
-        <v>0.474</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7283950617283951</v>
+        <v>0.6612021857923497</v>
       </c>
       <c r="C82">
-        <v>0.4850940665701881</v>
+        <v>0.487905604719764</v>
       </c>
       <c r="D82">
-        <v>0.5909090909090909</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="E82">
-        <v>0.4658469945355191</v>
+        <v>0.4601307189542483</v>
       </c>
       <c r="F82">
-        <v>0.576</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G82">
-        <v>0.4668400520156047</v>
+        <v>0.4780426599749059</v>
       </c>
       <c r="H82">
-        <v>0.468</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7484662576687117</v>
+        <v>0.6797752808988764</v>
       </c>
       <c r="C83">
-        <v>0.4857630979498861</v>
+        <v>0.4907651715039578</v>
       </c>
       <c r="D83">
-        <v>0.6558441558441559</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="E83">
-        <v>0.4644736842105263</v>
+        <v>0.4649006622516556</v>
       </c>
       <c r="F83">
-        <v>0.5826771653543307</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="G83">
-        <v>0.4618272841051314</v>
+        <v>0.4694656488549618</v>
       </c>
       <c r="H83">
-        <v>0.466</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7197452229299363</v>
+        <v>0.7607361963190185</v>
       </c>
       <c r="C84">
-        <v>0.4838892029395139</v>
+        <v>0.4894417124674573</v>
       </c>
       <c r="D84">
-        <v>0.6796875</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="E84">
-        <v>0.4589308996088657</v>
+        <v>0.4593175853018373</v>
       </c>
       <c r="F84">
-        <v>0.6060606060606061</v>
+        <v>0.448</v>
       </c>
       <c r="G84">
-        <v>0.4509316770186335</v>
+        <v>0.4698492462311558</v>
       </c>
       <c r="H84">
-        <v>0.476</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7189542483660131</v>
+        <v>0.754601226993865</v>
       </c>
       <c r="C85">
-        <v>0.4847467114469634</v>
+        <v>0.4864787930543695</v>
       </c>
       <c r="D85">
-        <v>0.6691176470588235</v>
+        <v>0.583941605839416</v>
       </c>
       <c r="E85">
-        <v>0.4503916449086162</v>
+        <v>0.4624505928853755</v>
       </c>
       <c r="F85">
-        <v>0.5982142857142857</v>
+        <v>0.5596330275229358</v>
       </c>
       <c r="G85">
-        <v>0.456359102244389</v>
+        <v>0.4679245283018868</v>
       </c>
       <c r="H85">
-        <v>0.484</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6981132075471698</v>
+        <v>0.7484662576687117</v>
       </c>
       <c r="C86">
-        <v>0.486524034454015</v>
+        <v>0.4871577758961332</v>
       </c>
       <c r="D86">
-        <v>0.6170212765957447</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E86">
-        <v>0.4558823529411765</v>
+        <v>0.4514435695538058</v>
       </c>
       <c r="F86">
-        <v>0.6050420168067226</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="G86">
-        <v>0.4572158365261814</v>
+        <v>0.4569288389513109</v>
       </c>
       <c r="H86">
-        <v>0.482</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.650887573964497</v>
+        <v>0.7425149700598802</v>
       </c>
       <c r="C87">
-        <v>0.4853266888150609</v>
+        <v>0.488951048951049</v>
       </c>
       <c r="D87">
-        <v>0.5683453237410072</v>
+        <v>0.5906040268456376</v>
       </c>
       <c r="E87">
-        <v>0.4661246612466124</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="F87">
-        <v>0.5944055944055944</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="G87">
-        <v>0.4595300261096606</v>
+        <v>0.4569620253164557</v>
       </c>
       <c r="H87">
-        <v>0.484</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6882352941176471</v>
+        <v>0.7231638418079096</v>
       </c>
       <c r="C88">
-        <v>0.4855332047395977</v>
+        <v>0.4881582613541376</v>
       </c>
       <c r="D88">
-        <v>0.6174496644295302</v>
+        <v>0.5608108108108109</v>
       </c>
       <c r="E88">
-        <v>0.4710632570659489</v>
+        <v>0.4503401360544217</v>
       </c>
       <c r="F88">
-        <v>0.6118421052631579</v>
+        <v>0.504</v>
       </c>
       <c r="G88">
-        <v>0.4620505992010652</v>
+        <v>0.4628205128205128</v>
       </c>
       <c r="H88">
-        <v>0.474</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7034883720930233</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="C89">
-        <v>0.4823432794963044</v>
+        <v>0.4893440354276224</v>
       </c>
       <c r="D89">
-        <v>0.6506849315068494</v>
+        <v>0.6298701298701299</v>
       </c>
       <c r="E89">
-        <v>0.4791386271870794</v>
+        <v>0.462787550744249</v>
       </c>
       <c r="F89">
-        <v>0.6013986013986014</v>
+        <v>0.5539568345323741</v>
       </c>
       <c r="G89">
-        <v>0.4592790387182911</v>
+        <v>0.4677002583979328</v>
       </c>
       <c r="H89">
-        <v>0.478</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7283950617283951</v>
+        <v>0.7616580310880829</v>
       </c>
       <c r="C90">
-        <v>0.4820944112859468</v>
+        <v>0.4855570839064649</v>
       </c>
       <c r="D90">
-        <v>0.6462585034013606</v>
+        <v>0.5779220779220779</v>
       </c>
       <c r="E90">
-        <v>0.4860557768924303</v>
+        <v>0.4543010752688172</v>
       </c>
       <c r="F90">
-        <v>0.5586206896551724</v>
+        <v>0.4921875</v>
       </c>
       <c r="G90">
-        <v>0.4534731323722149</v>
+        <v>0.4674479166666667</v>
       </c>
       <c r="H90">
-        <v>0.488</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6936416184971098</v>
+        <v>0.7807486631016043</v>
       </c>
       <c r="C91">
-        <v>0.4814715359828142</v>
+        <v>0.4844006568144499</v>
       </c>
       <c r="D91">
-        <v>0.6370370370370371</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E91">
-        <v>0.4906166219839142</v>
+        <v>0.458950201884253</v>
       </c>
       <c r="F91">
-        <v>0.5107913669064749</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="G91">
-        <v>0.447682119205298</v>
+        <v>0.4664082687338501</v>
       </c>
       <c r="H91">
-        <v>0.484</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7041420118343196</v>
+        <v>0.7486631016042781</v>
       </c>
       <c r="C92">
-        <v>0.4820047987203412</v>
+        <v>0.4832160259880888</v>
       </c>
       <c r="D92">
-        <v>0.6382978723404256</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="E92">
-        <v>0.4874504623513871</v>
+        <v>0.4588859416445623</v>
       </c>
       <c r="F92">
-        <v>0.5611510791366906</v>
+        <v>0.5625</v>
       </c>
       <c r="G92">
-        <v>0.4571805006587615</v>
+        <v>0.4660691421254802</v>
       </c>
       <c r="H92">
-        <v>0.464</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7055214723926381</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C93">
-        <v>0.4815991527667461</v>
+        <v>0.4844420600858369</v>
       </c>
       <c r="D93">
-        <v>0.6044776119402985</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="E93">
-        <v>0.4867724867724867</v>
+        <v>0.4596026490066225</v>
       </c>
       <c r="F93">
-        <v>0.609375</v>
+        <v>0.5508474576271186</v>
       </c>
       <c r="G93">
-        <v>0.4442988204456094</v>
+        <v>0.4604591836734694</v>
       </c>
       <c r="H93">
-        <v>0.464</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.66875</v>
+        <v>0.702020202020202</v>
       </c>
       <c r="C94">
-        <v>0.4814621409921671</v>
+        <v>0.4863286434828776</v>
       </c>
       <c r="D94">
-        <v>0.5918367346938775</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="E94">
-        <v>0.4869791666666667</v>
+        <v>0.4564926372155288</v>
       </c>
       <c r="F94">
-        <v>0.6124031007751938</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="G94">
-        <v>0.450507614213198</v>
+        <v>0.468869123252859</v>
       </c>
       <c r="H94">
-        <v>0.458</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7080745341614907</v>
+        <v>0.6915422885572139</v>
       </c>
       <c r="C95">
-        <v>0.4837788736049831</v>
+        <v>0.4881203801478353</v>
       </c>
       <c r="D95">
-        <v>0.6</v>
+        <v>0.6115107913669064</v>
       </c>
       <c r="E95">
-        <v>0.4840848806366048</v>
+        <v>0.465954606141522</v>
       </c>
       <c r="F95">
-        <v>0.6696428571428571</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="G95">
-        <v>0.4526854219948849</v>
+        <v>0.4585987261146497</v>
       </c>
       <c r="H95">
-        <v>0.458</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6826347305389222</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C96">
-        <v>0.4813096158803815</v>
+        <v>0.4900523560209424</v>
       </c>
       <c r="D96">
-        <v>0.6222222222222222</v>
+        <v>0.5251798561151079</v>
       </c>
       <c r="E96">
-        <v>0.4810457516339869</v>
+        <v>0.470976253298153</v>
       </c>
       <c r="F96">
-        <v>0.648854961832061</v>
+        <v>0.5983606557377049</v>
       </c>
       <c r="G96">
-        <v>0.4566326530612245</v>
+        <v>0.4497422680412371</v>
       </c>
       <c r="H96">
-        <v>0.458</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6763005780346821</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="C97">
-        <v>0.4832780188920092</v>
+        <v>0.4909560723514212</v>
       </c>
       <c r="D97">
-        <v>0.5874125874125874</v>
+        <v>0.5298507462686567</v>
       </c>
       <c r="E97">
-        <v>0.4766233766233766</v>
+        <v>0.474934036939314</v>
       </c>
       <c r="F97">
-        <v>0.6212121212121212</v>
+        <v>0.6076923076923076</v>
       </c>
       <c r="G97">
-        <v>0.4648786717752235</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="H97">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,22 +2922,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6451612903225806</v>
+        <v>0.7010309278350515</v>
       </c>
       <c r="C98">
-        <v>0.4826795720835456</v>
+        <v>0.4870612349474763</v>
       </c>
       <c r="D98">
-        <v>0.5970149253731343</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="E98">
-        <v>0.4819277108433735</v>
+        <v>0.4674479166666667</v>
       </c>
       <c r="F98">
-        <v>0.6147540983606558</v>
+        <v>0.626984126984127</v>
       </c>
       <c r="G98">
-        <v>0.4798962386511025</v>
+        <v>0.4469987228607918</v>
       </c>
       <c r="H98">
         <v>0.452</v>
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6569767441860465</v>
+        <v>0.6733668341708543</v>
       </c>
       <c r="C99">
-        <v>0.4835526315789473</v>
+        <v>0.4867549668874172</v>
       </c>
       <c r="D99">
-        <v>0.6170212765957447</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="E99">
-        <v>0.4761273209549072</v>
+        <v>0.4644243208279431</v>
       </c>
       <c r="F99">
-        <v>0.6</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="G99">
-        <v>0.4883720930232558</v>
+        <v>0.4451530612244898</v>
       </c>
       <c r="H99">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.65625</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="C100">
-        <v>0.4836127095321491</v>
+        <v>0.4885960466294982</v>
       </c>
       <c r="D100">
-        <v>0.6382978723404256</v>
+        <v>0.6131386861313869</v>
       </c>
       <c r="E100">
-        <v>0.4783748361730013</v>
+        <v>0.4628647214854111</v>
       </c>
       <c r="F100">
-        <v>0.6083333333333333</v>
+        <v>0.6532258064516129</v>
       </c>
       <c r="G100">
-        <v>0.4974424552429668</v>
+        <v>0.4438775510204082</v>
       </c>
       <c r="H100">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6524390243902439</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="C101">
-        <v>0.4842470850905483</v>
+        <v>0.4868454021548484</v>
       </c>
       <c r="D101">
-        <v>0.6258992805755396</v>
+        <v>0.593103448275862</v>
       </c>
       <c r="E101">
-        <v>0.466403162055336</v>
+        <v>0.4839142091152815</v>
       </c>
       <c r="F101">
-        <v>0.528</v>
+        <v>0.6106870229007634</v>
       </c>
       <c r="G101">
-        <v>0.4910714285714285</v>
+        <v>0.4448767833981842</v>
       </c>
       <c r="H101">
-        <v>0.434</v>
+        <v>0.454</v>
       </c>
     </row>
   </sheetData>
